--- a/data_sample/ice_cores/2015-B1-OR19.xlsx
+++ b/data_sample/ice_cores/2015-B1-OR19.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="124">
   <si>
     <t xml:space="preserve">date and time</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t xml:space="preserve">core serie name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-B2-OR19</t>
   </si>
   <si>
     <t xml:space="preserve">observer</t>
@@ -693,14 +696,14 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="31.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="1" width="15.4"/>
   </cols>
   <sheetData>
@@ -907,15 +910,18 @@
       <c r="C22" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D22" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -923,12 +929,12 @@
     </row>
     <row r="26" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
@@ -938,7 +944,7 @@
     </row>
     <row r="28" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="1" t="s">
@@ -947,7 +953,7 @@
     </row>
     <row r="29" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>15</v>
@@ -955,21 +961,21 @@
     </row>
     <row r="30" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -1005,7 +1011,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="D22 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1020,7 +1026,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>26</v>
@@ -1028,7 +1034,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>13</v>
@@ -1039,19 +1045,19 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -1065,50 +1071,50 @@
     </row>
     <row r="5" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="10"/>
       <c r="D6" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1122,25 +1128,25 @@
         <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1241,7 +1247,7 @@
         <v>6.6</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1258,7 +1264,7 @@
         <v>5.4</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1322,7 +1328,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+      <selection pane="topLeft" activeCell="E14" activeCellId="1" sqref="D22 E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1335,7 +1341,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="1" t="s">
@@ -1344,7 +1350,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>13</v>
@@ -1355,38 +1361,38 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C6" s="12"/>
     </row>
@@ -1395,10 +1401,10 @@
         <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1417,7 +1423,7 @@
         <v>-1.9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1440,7 +1446,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="129" zoomScaleNormal="129" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
+      <selection pane="topLeft" activeCell="K3" activeCellId="1" sqref="D22 K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1467,7 +1473,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
+      <selection pane="topLeft" activeCell="G16" activeCellId="1" sqref="D22 G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1477,7 +1483,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -1485,10 +1491,10 @@
     </row>
     <row r="2" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
@@ -1496,113 +1502,113 @@
     <row r="3" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="10"/>
       <c r="B3" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C6" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C7" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1629,7 +1635,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F40" activeCellId="0" sqref="F40"/>
+      <selection pane="topLeft" activeCell="F40" activeCellId="1" sqref="D22 F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1642,31 +1648,31 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1689,7 +1695,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
+      <selection pane="topLeft" activeCell="C29" activeCellId="1" sqref="D22 C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1701,68 +1707,68 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C3" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C5" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1770,7 +1776,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data_sample/ice_cores/2015-B1-OR19.xlsx
+++ b/data_sample/ice_cores/2015-B1-OR19.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="1" state="visible" r:id="rId2"/>
@@ -695,7 +695,7 @@
   </sheetPr>
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -1008,10 +1008,10 @@
     <tabColor rgb="FF4BACC6"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="D22 C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1020,7 +1020,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="15.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="118.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="1" width="15.4"/>
   </cols>
   <sheetData>
@@ -1309,6 +1309,7 @@
         <v>9.4</v>
       </c>
     </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1328,7 +1329,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="1" sqref="D22 E14"/>
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1446,7 +1447,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="129" zoomScaleNormal="129" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K3" activeCellId="1" sqref="D22 K3"/>
+      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1473,7 +1474,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="1" sqref="D22 G16"/>
+      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1635,7 +1636,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F40" activeCellId="1" sqref="D22 F40"/>
+      <selection pane="topLeft" activeCell="F40" activeCellId="0" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1695,7 +1696,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C29" activeCellId="1" sqref="D22 C29"/>
+      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
